--- a/routes/Plant_001_masterdata.xlsx
+++ b/routes/Plant_001_masterdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b027ff85dd105e19/Documents/GitHub/Plant003_Nanliu Manufacturing India Private Limited/Nanliu_Manufacturing_India_Private_Limited/routes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="11_379C63833E19F6E18D8ECEACF38CE0B8A079318B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DEB9C828-1380-4CDC-8AA6-DD3C2E1B45B2}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="11_379C63833E19F6E18D8ECEACF38CE0B8A079318B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7AC7F522-50E9-4032-A29B-6530AEA697D3}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="26">
   <si>
     <t>IRMSGCAS</t>
   </si>
@@ -95,6 +95,12 @@
   <si>
     <t>Number_of_Slits</t>
   </si>
+  <si>
+    <t>ATBAQL 40gsm</t>
+  </si>
+  <si>
+    <t>AQL NL 40gsm PE/PET ATB 86mm WH</t>
+  </si>
 </sst>
 </file>
 
@@ -157,7 +163,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -195,11 +201,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -236,6 +266,25 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,7 +506,7 @@
   <dimension ref="A1:O999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -618,8 +667,52 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="12.75">
-      <c r="F4" s="7"/>
+    <row r="4" spans="1:15" s="20" customFormat="1" ht="15">
+      <c r="A4" s="14">
+        <v>90415042</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="17">
+        <v>86</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="1:15" ht="12.75">
       <c r="F5" s="7"/>

--- a/routes/Plant_001_masterdata.xlsx
+++ b/routes/Plant_001_masterdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b027ff85dd105e19/Documents/GitHub/Plant003_Nanliu Manufacturing India Private Limited/Nanliu_Manufacturing_India_Private_Limited/routes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aureo\OneDrive\Documents\GitHub\GreenInkTechnologies-SWANSON\routes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="11_379C63833E19F6E18D8ECEACF38CE0B8A079318B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7AC7F522-50E9-4032-A29B-6530AEA697D3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F34E1EF-9B1B-4942-8C88-4B9D31F774B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="37">
   <si>
     <t>IRMSGCAS</t>
   </si>
@@ -73,33 +73,64 @@
     <t>Manual Typing</t>
   </si>
   <si>
-    <t>Nanliu Manufacturing India Private Limited</t>
-  </si>
-  <si>
-    <t>Sanand, Gujarat</t>
-  </si>
-  <si>
-    <t>ATBAQL 33gsm</t>
-  </si>
-  <si>
-    <t>00003768 Rev1</t>
-  </si>
-  <si>
-    <t>ATBAQL 33gsm 95mm CW NL India</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATBAQL 33gsm 90mm CW NL India</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>Number_of_Slits</t>
   </si>
   <si>
-    <t>ATBAQL 40gsm</t>
+    <t>Swanson Plastics (India) Private Limited</t>
   </si>
   <si>
-    <t>AQL NL 40gsm PE/PET ATB 86mm WH</t>
+    <t>Bhuipal, Goa</t>
+  </si>
+  <si>
+    <t>APE-102(18)C</t>
+  </si>
+  <si>
+    <t>APE-168(18)C</t>
+  </si>
+  <si>
+    <t>APE-168(18)CP(KRANTI)</t>
+  </si>
+  <si>
+    <t>APE-168(18)CP(NIGHT)</t>
+  </si>
+  <si>
+    <t>APE-176(18)CP(NEEM)</t>
+  </si>
+  <si>
+    <t>WHITE-214(18)</t>
+  </si>
+  <si>
+    <t>WHITE-234(18)</t>
+  </si>
+  <si>
+    <t>99368714</t>
+  </si>
+  <si>
+    <t>00001429</t>
+  </si>
+  <si>
+    <t>99508624</t>
+  </si>
+  <si>
+    <t>FI SWA 18gsm CW102mmRD455mmWH BS RR</t>
+  </si>
+  <si>
+    <t>FI SWA 18gsm CW168mmRD400mmWH BS RR</t>
+  </si>
+  <si>
+    <t>FI SWA 18gsm CW168mmRD400mmWH BS RR 1CP(KRANTI)</t>
+  </si>
+  <si>
+    <t>FI SWA 18gsm CW168mmRD400mmWH BS RR 1CP(NIGHT)</t>
+  </si>
+  <si>
+    <t>FI SWA 18gsm CW176mmRD750mmWH BS RR 1CP(NEEM)</t>
+  </si>
+  <si>
+    <t>FI SWA 18gsm CW214mmRD510mmWH WF RR</t>
+  </si>
+  <si>
+    <t>FI SWA 18gsm CW234mmRD520mmWH WF RR</t>
   </si>
 </sst>
 </file>
@@ -163,7 +194,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -183,21 +214,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -229,15 +245,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="19">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -250,41 +266,33 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,10 +511,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:O999"/>
+  <dimension ref="A1:O997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -514,8 +522,9 @@
     <col min="1" max="1" width="14.42578125" style="1"/>
     <col min="2" max="2" width="49.42578125" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="5" max="5" width="27.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="45.7109375" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" style="16" customWidth="1"/>
+    <col min="6" max="6" width="56.42578125" customWidth="1"/>
     <col min="7" max="7" width="10.85546875" customWidth="1"/>
     <col min="8" max="8" width="14.5703125" customWidth="1"/>
     <col min="9" max="9" width="10.85546875" style="1" customWidth="1"/>
@@ -539,7 +548,7 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
@@ -566,31 +575,31 @@
       <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="13" t="s">
-        <v>23</v>
+      <c r="N1" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="O1" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15">
-      <c r="A2" s="8">
-        <v>90109685</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="10" t="s">
+    <row r="2" spans="1:15" s="13" customFormat="1" ht="15">
+      <c r="A2" s="9">
+        <v>99396168</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="C2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="D2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>21</v>
+      <c r="E2" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>30</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>14</v>
@@ -598,8 +607,8 @@
       <c r="H2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="8">
-        <v>95</v>
+      <c r="I2" s="12">
+        <v>102</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>16</v>
@@ -621,23 +630,23 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="15">
-      <c r="A3" s="8">
-        <v>90252662</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="A3" s="1">
+        <v>91876235</v>
+      </c>
+      <c r="B3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="C3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>22</v>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>31</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>14</v>
@@ -645,8 +654,8 @@
       <c r="H3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="8">
-        <v>90</v>
+      <c r="I3" s="1">
+        <v>168</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>16</v>
@@ -667,24 +676,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="20" customFormat="1" ht="15">
-      <c r="A4" s="14">
-        <v>90415042</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="16" t="s">
+    <row r="4" spans="1:15" ht="15">
+      <c r="A4" s="1">
+        <v>90254197</v>
+      </c>
+      <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>25</v>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>32</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>14</v>
@@ -692,8 +701,8 @@
       <c r="H4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="17">
-        <v>86</v>
+      <c r="I4" s="1">
+        <v>168</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>16</v>
@@ -714,44 +723,212 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="12.75">
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="1:15" ht="12.75">
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:15" ht="12.75">
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:15" ht="12.75">
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:15" ht="12.75">
+    <row r="5" spans="1:15" ht="15">
+      <c r="A5" s="1">
+        <v>90486174</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="1">
+        <v>168</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15">
+      <c r="A6" s="1">
+        <v>90256104</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="1">
+        <v>176</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15">
+      <c r="A7" s="1">
+        <v>91000940</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="1">
+        <v>214</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="1" customFormat="1" ht="15">
+      <c r="A8" s="1">
+        <v>96977186</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="1">
+        <v>234</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="12.75">
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9" s="16"/>
       <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:15" s="1" customFormat="1" ht="12.75">
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="N9"/>
+    </row>
+    <row r="10" spans="1:15" ht="12.75">
       <c r="F10" s="7"/>
-      <c r="G10"/>
-      <c r="H10"/>
-      <c r="J10"/>
-      <c r="K10"/>
-      <c r="L10"/>
-      <c r="N10"/>
-    </row>
-    <row r="11" spans="1:15" s="1" customFormat="1" ht="12.75">
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
+    </row>
+    <row r="11" spans="1:15" ht="12.75">
       <c r="F11" s="7"/>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="J11"/>
-      <c r="K11"/>
-      <c r="L11"/>
-      <c r="N11"/>
     </row>
     <row r="12" spans="1:15" ht="12.75">
       <c r="F12" s="7"/>
@@ -3675,12 +3852,8 @@
     <row r="985" spans="6:6" ht="12.75">
       <c r="F985" s="7"/>
     </row>
-    <row r="986" spans="6:6" ht="12.75">
-      <c r="F986" s="7"/>
-    </row>
-    <row r="987" spans="6:6" ht="12.75">
-      <c r="F987" s="7"/>
-    </row>
+    <row r="986" spans="6:6" ht="12.75"/>
+    <row r="987" spans="6:6" ht="12.75"/>
     <row r="988" spans="6:6" ht="12.75"/>
     <row r="989" spans="6:6" ht="12.75"/>
     <row r="990" spans="6:6" ht="12.75"/>
@@ -3691,8 +3864,6 @@
     <row r="995" ht="12.75"/>
     <row r="996" ht="12.75"/>
     <row r="997" ht="12.75"/>
-    <row r="998" ht="12.75"/>
-    <row r="999" ht="12.75"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/routes/Plant_001_masterdata.xlsx
+++ b/routes/Plant_001_masterdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aureo\OneDrive\Documents\GitHub\GreenInkTechnologies-SWANSON\routes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F34E1EF-9B1B-4942-8C88-4B9D31F774B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B3552C-262A-4097-B48F-F26C07B57C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="41">
   <si>
     <t>IRMSGCAS</t>
   </si>
@@ -131,13 +131,25 @@
   </si>
   <si>
     <t>FI SWA 18gsm CW234mmRD520mmWH WF RR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI Number </t>
+  </si>
+  <si>
+    <t>UBS23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pallet Number </t>
+  </si>
+  <si>
+    <t>Std WT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -173,6 +185,17 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -194,7 +217,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -226,26 +249,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -267,32 +275,45 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -511,10 +532,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:O997"/>
+  <dimension ref="A1:R997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="O13" sqref="O13:O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -523,7 +544,7 @@
     <col min="2" max="2" width="49.42578125" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
     <col min="4" max="4" width="22.5703125" customWidth="1"/>
-    <col min="5" max="5" width="26.7109375" style="16" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" style="11" customWidth="1"/>
     <col min="6" max="6" width="56.42578125" customWidth="1"/>
     <col min="7" max="7" width="10.85546875" customWidth="1"/>
     <col min="8" max="8" width="14.5703125" customWidth="1"/>
@@ -533,9 +554,10 @@
     <col min="13" max="13" width="20.42578125" style="1" customWidth="1"/>
     <col min="14" max="14" width="17" customWidth="1"/>
     <col min="15" max="15" width="26" style="1" customWidth="1"/>
+    <col min="16" max="18" width="14.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="12.75">
+    <row r="1" spans="1:18" ht="12.75">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -548,7 +570,7 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
@@ -581,24 +603,33 @@
       <c r="O1" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" s="13" customFormat="1" ht="15">
-      <c r="A2" s="9">
+      <c r="P1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="9" customFormat="1" ht="15">
+      <c r="A2" s="14">
         <v>99396168</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="20" t="s">
         <v>30</v>
       </c>
       <c r="G2" s="6" t="s">
@@ -607,7 +638,7 @@
       <c r="H2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="12">
+      <c r="I2" s="18">
         <v>102</v>
       </c>
       <c r="J2" s="6" t="s">
@@ -628,24 +659,31 @@
       <c r="O2" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" ht="15">
-      <c r="A3" s="1">
+      <c r="P2" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" s="14"/>
+    </row>
+    <row r="3" spans="1:18" ht="15">
+      <c r="A3" s="14">
         <v>91876235</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G3" s="6" t="s">
@@ -654,7 +692,7 @@
       <c r="H3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="14">
         <v>168</v>
       </c>
       <c r="J3" s="6" t="s">
@@ -675,24 +713,33 @@
       <c r="O3" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" ht="15">
-      <c r="A4" s="1">
+      <c r="P3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R3" s="14">
+        <v>14.21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="15">
+      <c r="A4" s="14">
         <v>90254197</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="23" t="s">
         <v>32</v>
       </c>
       <c r="G4" s="6" t="s">
@@ -701,7 +748,7 @@
       <c r="H4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="14">
         <v>168</v>
       </c>
       <c r="J4" s="6" t="s">
@@ -722,24 +769,33 @@
       <c r="O4" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" ht="15">
-      <c r="A5" s="1">
+      <c r="P4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R4" s="14">
+        <v>14.21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15">
+      <c r="A5" s="14">
         <v>90486174</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="23" t="s">
         <v>33</v>
       </c>
       <c r="G5" s="6" t="s">
@@ -748,7 +804,7 @@
       <c r="H5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="14">
         <v>168</v>
       </c>
       <c r="J5" s="6" t="s">
@@ -769,24 +825,31 @@
       <c r="O5" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" ht="15">
-      <c r="A6" s="1">
+      <c r="P5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R5" s="14"/>
+    </row>
+    <row r="6" spans="1:18" ht="15">
+      <c r="A6" s="14">
         <v>90256104</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="23" t="s">
         <v>34</v>
       </c>
       <c r="G6" s="6" t="s">
@@ -795,7 +858,7 @@
       <c r="H6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="14">
         <v>176</v>
       </c>
       <c r="J6" s="6" t="s">
@@ -816,24 +879,31 @@
       <c r="O6" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" ht="15">
-      <c r="A7" s="1">
+      <c r="P6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R6" s="15"/>
+    </row>
+    <row r="7" spans="1:18" ht="15">
+      <c r="A7" s="14">
         <v>91000940</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="23" t="s">
         <v>35</v>
       </c>
       <c r="G7" s="6" t="s">
@@ -842,7 +912,7 @@
       <c r="H7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="14">
         <v>214</v>
       </c>
       <c r="J7" s="6" t="s">
@@ -863,24 +933,33 @@
       <c r="O7" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" s="1" customFormat="1" ht="15">
-      <c r="A8" s="1">
+      <c r="P7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R7" s="14">
+        <v>25.04</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" s="1" customFormat="1" ht="15">
+      <c r="A8" s="14">
         <v>96977186</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="23" t="s">
         <v>36</v>
       </c>
       <c r="G8" s="6" t="s">
@@ -889,7 +968,7 @@
       <c r="H8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="14">
         <v>234</v>
       </c>
       <c r="J8" s="6" t="s">
@@ -910,12 +989,19 @@
       <c r="O8" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="12.75">
+      <c r="P8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R8" s="14"/>
+    </row>
+    <row r="9" spans="1:18" s="1" customFormat="1" ht="12.75">
       <c r="B9"/>
       <c r="C9"/>
       <c r="D9"/>
-      <c r="E9" s="16"/>
+      <c r="E9" s="11"/>
       <c r="F9" s="7"/>
       <c r="G9"/>
       <c r="H9"/>
@@ -924,25 +1010,25 @@
       <c r="L9"/>
       <c r="N9"/>
     </row>
-    <row r="10" spans="1:15" ht="12.75">
+    <row r="10" spans="1:18" ht="12.75">
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:15" ht="12.75">
+    <row r="11" spans="1:18" ht="12.75">
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:15" ht="12.75">
+    <row r="12" spans="1:18" ht="12.75">
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:15" ht="12.75">
+    <row r="13" spans="1:18" ht="12.75">
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:15" ht="12.75">
+    <row r="14" spans="1:18" ht="12.75">
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:15" ht="12.75">
+    <row r="15" spans="1:18" ht="12.75">
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:15" ht="12.75">
+    <row r="16" spans="1:18" ht="12.75">
       <c r="F16" s="7"/>
     </row>
     <row r="17" spans="6:6" ht="12.75">

--- a/routes/Plant_001_masterdata.xlsx
+++ b/routes/Plant_001_masterdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aureo\OneDrive\Documents\GitHub\GreenInkTechnologies-SWANSON\routes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B3552C-262A-4097-B48F-F26C07B57C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33104039-F9A3-4C76-AEE7-ED0AEF54507E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="42">
   <si>
     <t>IRMSGCAS</t>
   </si>
@@ -142,7 +142,10 @@
     <t xml:space="preserve">Pallet Number </t>
   </si>
   <si>
-    <t>Std WT</t>
+    <t>Gross WT of one Pallet and Packagematerial</t>
+  </si>
+  <si>
+    <t>NETWT</t>
   </si>
 </sst>
 </file>
@@ -217,7 +220,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -249,11 +252,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -291,9 +305,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -314,6 +325,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -532,10 +549,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:R997"/>
+  <dimension ref="A1:S997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13:O14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -549,15 +566,17 @@
     <col min="7" max="7" width="10.85546875" customWidth="1"/>
     <col min="8" max="8" width="14.5703125" customWidth="1"/>
     <col min="9" max="9" width="10.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="19.5703125" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" customWidth="1"/>
-    <col min="13" max="13" width="20.42578125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="17" customWidth="1"/>
-    <col min="15" max="15" width="26" style="1" customWidth="1"/>
-    <col min="16" max="18" width="14.42578125" style="1"/>
+    <col min="10" max="10" width="17.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="19.5703125" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" customWidth="1"/>
+    <col min="14" max="14" width="20.42578125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="17" customWidth="1"/>
+    <col min="16" max="16" width="26" style="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1"/>
+    <col min="19" max="19" width="39.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="12.75">
+    <row r="1" spans="1:19" ht="12.75">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -585,51 +604,54 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="Q1" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="R1" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="S1" s="24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="9" customFormat="1" ht="15">
+    <row r="2" spans="1:19" s="9" customFormat="1" ht="15">
       <c r="A2" s="14">
         <v>99396168</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="19" t="s">
         <v>30</v>
       </c>
       <c r="G2" s="6" t="s">
@@ -638,11 +660,11 @@
       <c r="H2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="18">
+      <c r="I2" s="17">
         <v>102</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>16</v>
+      <c r="J2" s="14">
+        <v>9.18</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>16</v>
@@ -659,31 +681,36 @@
       <c r="O2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="13" t="s">
+      <c r="P2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="R2" s="14"/>
-    </row>
-    <row r="3" spans="1:18" ht="15">
+      <c r="R2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S2" s="9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15">
       <c r="A3" s="14">
         <v>91876235</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="22" t="s">
         <v>31</v>
       </c>
       <c r="G3" s="6" t="s">
@@ -695,8 +722,8 @@
       <c r="I3" s="14">
         <v>168</v>
       </c>
-      <c r="J3" s="6" t="s">
-        <v>16</v>
+      <c r="J3" s="14">
+        <v>14.21</v>
       </c>
       <c r="K3" s="6" t="s">
         <v>16</v>
@@ -719,27 +746,30 @@
       <c r="Q3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="14">
-        <v>14.21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="15">
+      <c r="R3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S3" s="9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15">
       <c r="A4" s="14">
         <v>90254197</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="22" t="s">
         <v>32</v>
       </c>
       <c r="G4" s="6" t="s">
@@ -751,8 +781,8 @@
       <c r="I4" s="14">
         <v>168</v>
       </c>
-      <c r="J4" s="6" t="s">
-        <v>16</v>
+      <c r="J4" s="14">
+        <v>14.21</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>16</v>
@@ -775,27 +805,30 @@
       <c r="Q4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R4" s="14">
-        <v>14.21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="15">
+      <c r="R4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S4" s="9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15">
       <c r="A5" s="14">
         <v>90486174</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="22" t="s">
         <v>33</v>
       </c>
       <c r="G5" s="6" t="s">
@@ -807,8 +840,8 @@
       <c r="I5" s="14">
         <v>168</v>
       </c>
-      <c r="J5" s="6" t="s">
-        <v>16</v>
+      <c r="J5" s="12">
+        <v>14.21</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>16</v>
@@ -831,25 +864,30 @@
       <c r="Q5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R5" s="14"/>
-    </row>
-    <row r="6" spans="1:18" ht="15">
+      <c r="R5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S5" s="9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15">
       <c r="A6" s="14">
         <v>90256104</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="22" t="s">
         <v>34</v>
       </c>
       <c r="G6" s="6" t="s">
@@ -861,8 +899,8 @@
       <c r="I6" s="14">
         <v>176</v>
       </c>
-      <c r="J6" s="6" t="s">
-        <v>16</v>
+      <c r="J6" s="23">
+        <v>39.6</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>16</v>
@@ -885,25 +923,30 @@
       <c r="Q6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R6" s="15"/>
-    </row>
-    <row r="7" spans="1:18" ht="15">
+      <c r="R6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S6" s="9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="15">
       <c r="A7" s="14">
         <v>91000940</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="22" t="s">
         <v>35</v>
       </c>
       <c r="G7" s="6" t="s">
@@ -915,8 +958,8 @@
       <c r="I7" s="14">
         <v>214</v>
       </c>
-      <c r="J7" s="6" t="s">
-        <v>16</v>
+      <c r="J7" s="14">
+        <v>25.04</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>16</v>
@@ -933,33 +976,36 @@
       <c r="O7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="P7" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="R7" s="14">
-        <v>25.04</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" s="1" customFormat="1" ht="15">
+      <c r="P7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S7" s="9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" s="1" customFormat="1" ht="15">
       <c r="A8" s="14">
         <v>96977186</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="22" t="s">
         <v>36</v>
       </c>
       <c r="G8" s="6" t="s">
@@ -971,8 +1017,8 @@
       <c r="I8" s="14">
         <v>234</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>16</v>
+      <c r="J8" s="14">
+        <v>29.48</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>16</v>
@@ -995,9 +1041,14 @@
       <c r="Q8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R8" s="14"/>
-    </row>
-    <row r="9" spans="1:18" s="1" customFormat="1" ht="12.75">
+      <c r="R8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S8" s="9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="1" customFormat="1" ht="12.75">
       <c r="B9"/>
       <c r="C9"/>
       <c r="D9"/>
@@ -1005,30 +1056,30 @@
       <c r="F9" s="7"/>
       <c r="G9"/>
       <c r="H9"/>
-      <c r="J9"/>
       <c r="K9"/>
       <c r="L9"/>
-      <c r="N9"/>
-    </row>
-    <row r="10" spans="1:18" ht="12.75">
+      <c r="M9"/>
+      <c r="O9"/>
+    </row>
+    <row r="10" spans="1:19" ht="12.75">
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:18" ht="12.75">
+    <row r="11" spans="1:19" ht="12.75">
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:18" ht="12.75">
+    <row r="12" spans="1:19" ht="12.75">
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:18" ht="12.75">
+    <row r="13" spans="1:19" ht="12.75">
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:18" ht="12.75">
+    <row r="14" spans="1:19" ht="12.75">
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:18" ht="12.75">
+    <row r="15" spans="1:19" ht="12.75">
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:18" ht="12.75">
+    <row r="16" spans="1:19" ht="12.75">
       <c r="F16" s="7"/>
     </row>
     <row r="17" spans="6:6" ht="12.75">

--- a/routes/Plant_001_masterdata.xlsx
+++ b/routes/Plant_001_masterdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aureo\OneDrive\Documents\GitHub\GreenInkTechnologies-SWANSON\routes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aureo\OneDrive\Documents\GitHub\GreenInkTechnologies-SWANSON\GreenInkTechnologies-SWANSON\routes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33104039-F9A3-4C76-AEE7-ED0AEF54507E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07AE9A56-8872-4CC4-BBCB-10AFAE46FAA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="44">
   <si>
     <t>IRMSGCAS</t>
   </si>
@@ -94,9 +94,6 @@
     <t>APE-168(18)CP(NIGHT)</t>
   </si>
   <si>
-    <t>APE-176(18)CP(NEEM)</t>
-  </si>
-  <si>
     <t>WHITE-214(18)</t>
   </si>
   <si>
@@ -124,9 +121,6 @@
     <t>FI SWA 18gsm CW168mmRD400mmWH BS RR 1CP(NIGHT)</t>
   </si>
   <si>
-    <t>FI SWA 18gsm CW176mmRD750mmWH BS RR 1CP(NEEM)</t>
-  </si>
-  <si>
     <t>FI SWA 18gsm CW214mmRD510mmWH WF RR</t>
   </si>
   <si>
@@ -146,13 +140,25 @@
   </si>
   <si>
     <t>NETWT</t>
+  </si>
+  <si>
+    <t>APE-176(18)CP(LCC+NEEM)</t>
+  </si>
+  <si>
+    <t>FI SWA 18gsm CW176mmRD550mmWH BS RR 1CP LCC+ (NEEM)</t>
+  </si>
+  <si>
+    <t>APE-176(18)CP(FGC-NEEM)</t>
+  </si>
+  <si>
+    <t>FI SWA 18gsm CW176mmRD750mmWH BS RR 1CP FGC (NEEM)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -198,6 +204,13 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="4">
@@ -267,7 +280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -320,16 +333,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -551,8 +576,8 @@
   </sheetPr>
   <dimension ref="A1:S997"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -605,7 +630,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>9</v>
@@ -626,13 +651,13 @@
         <v>13</v>
       </c>
       <c r="Q1" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="R1" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="S1" s="24" t="s">
-        <v>40</v>
+      <c r="S1" s="20" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="9" customFormat="1" ht="15">
@@ -649,10 +674,10 @@
         <v>20</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>14</v>
@@ -685,7 +710,7 @@
         <v>16</v>
       </c>
       <c r="Q2" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R2" s="6" t="s">
         <v>16</v>
@@ -698,20 +723,20 @@
       <c r="A3" s="14">
         <v>91876235</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>31</v>
+      <c r="E3" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>30</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>14</v>
@@ -719,10 +744,10 @@
       <c r="H3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3" s="25">
         <v>168</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="25">
         <v>14.21</v>
       </c>
       <c r="K3" s="6" t="s">
@@ -757,20 +782,20 @@
       <c r="A4" s="14">
         <v>90254197</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>32</v>
+      <c r="E4" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>31</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>14</v>
@@ -778,10 +803,10 @@
       <c r="H4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="25">
         <v>168</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="25">
         <v>14.21</v>
       </c>
       <c r="K4" s="6" t="s">
@@ -816,20 +841,20 @@
       <c r="A5" s="14">
         <v>90486174</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>33</v>
+      <c r="E5" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>14</v>
@@ -837,10 +862,10 @@
       <c r="H5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="25">
         <v>168</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="26">
         <v>14.21</v>
       </c>
       <c r="K5" s="6" t="s">
@@ -875,20 +900,20 @@
       <c r="A6" s="14">
         <v>90256104</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>34</v>
+      <c r="D6" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>43</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>14</v>
@@ -896,10 +921,10 @@
       <c r="H6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="25">
         <v>176</v>
       </c>
-      <c r="J6" s="23">
+      <c r="J6" s="27">
         <v>39.6</v>
       </c>
       <c r="K6" s="6" t="s">
@@ -934,20 +959,20 @@
       <c r="A7" s="14">
         <v>91000940</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>35</v>
+      <c r="D7" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>33</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>14</v>
@@ -955,10 +980,10 @@
       <c r="H7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="25">
         <v>214</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="25">
         <v>25.04</v>
       </c>
       <c r="K7" s="6" t="s">
@@ -993,20 +1018,20 @@
       <c r="A8" s="14">
         <v>96977186</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>36</v>
+      <c r="D8" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>34</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>14</v>
@@ -1014,10 +1039,10 @@
       <c r="H8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="25">
         <v>234</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="25">
         <v>29.48</v>
       </c>
       <c r="K8" s="6" t="s">
@@ -1048,18 +1073,64 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="1" customFormat="1" ht="12.75">
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="7"/>
-      <c r="G9"/>
-      <c r="H9"/>
-      <c r="K9"/>
-      <c r="L9"/>
-      <c r="M9"/>
-      <c r="O9"/>
+    <row r="9" spans="1:19" s="1" customFormat="1" ht="15">
+      <c r="A9" s="1">
+        <v>20262479</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="21">
+        <v>176</v>
+      </c>
+      <c r="J9" s="28">
+        <v>28.51</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S9" s="9">
+        <v>25</v>
+      </c>
     </row>
     <row r="10" spans="1:19" ht="12.75">
       <c r="F10" s="7"/>

--- a/routes/Plant_001_masterdata.xlsx
+++ b/routes/Plant_001_masterdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aureo\OneDrive\Documents\GitHub\GreenInkTechnologies-SWANSON\GreenInkTechnologies-SWANSON\routes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aureoleinc-my.sharepoint.com/personal/suraj_patil_vegam_co/Documents/Documents/GitHub/GreenInkTechnologies-SWANSON/routes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07AE9A56-8872-4CC4-BBCB-10AFAE46FAA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{07AE9A56-8872-4CC4-BBCB-10AFAE46FAA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1FC35007-A8CF-4922-B6B8-2050B20FFF7D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="46">
   <si>
     <t>IRMSGCAS</t>
   </si>
@@ -152,6 +152,12 @@
   </si>
   <si>
     <t>FI SWA 18gsm CW176mmRD750mmWH BS RR 1CP FGC (NEEM)</t>
+  </si>
+  <si>
+    <t>00003055</t>
+  </si>
+  <si>
+    <t>FI SWA 18gsm CW168mmRD415mmWH BS RR</t>
   </si>
 </sst>
 </file>
@@ -280,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -354,6 +360,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -577,7 +590,7 @@
   <dimension ref="A1:S997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1132,8 +1145,64 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="12.75">
-      <c r="F10" s="7"/>
+    <row r="10" spans="1:19" ht="15">
+      <c r="A10" s="30">
+        <v>91899840</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="30">
+        <v>168</v>
+      </c>
+      <c r="J10" s="30">
+        <v>14.21</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S10" s="29">
+        <v>25</v>
+      </c>
     </row>
     <row r="11" spans="1:19" ht="12.75">
       <c r="F11" s="7"/>

--- a/routes/Plant_001_masterdata.xlsx
+++ b/routes/Plant_001_masterdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aureoleinc-my.sharepoint.com/personal/suraj_patil_vegam_co/Documents/Documents/GitHub/GreenInkTechnologies-SWANSON/routes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{07AE9A56-8872-4CC4-BBCB-10AFAE46FAA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1FC35007-A8CF-4922-B6B8-2050B20FFF7D}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{07AE9A56-8872-4CC4-BBCB-10AFAE46FAA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC198CA1-33B6-45FD-9BDE-D31CB75EEEB2}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="48">
   <si>
     <t>IRMSGCAS</t>
   </si>
@@ -158,6 +158,12 @@
   </si>
   <si>
     <t>FI SWA 18gsm CW168mmRD415mmWH BS RR</t>
+  </si>
+  <si>
+    <t>APE-176(18)CP(EASY JET)</t>
+  </si>
+  <si>
+    <t>FI SWA 18gsm CW176mmRD650mmWH BS RR 1CP(EASY JET)</t>
   </si>
 </sst>
 </file>
@@ -219,7 +225,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -235,6 +241,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -286,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -362,13 +374,23 @@
     <xf numFmtId="2" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -590,7 +612,7 @@
   <dimension ref="A1:S997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1146,34 +1168,34 @@
       </c>
     </row>
     <row r="10" spans="1:19" ht="15">
-      <c r="A10" s="30">
+      <c r="A10" s="21">
         <v>91899840</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="30" t="s">
+      <c r="G10" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="30" t="s">
+      <c r="H10" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="30">
+      <c r="I10" s="21">
         <v>168</v>
       </c>
-      <c r="J10" s="30">
+      <c r="J10" s="21">
         <v>14.21</v>
       </c>
       <c r="K10" s="6" t="s">
@@ -1200,12 +1222,68 @@
       <c r="R10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="S10" s="29">
+      <c r="S10" s="9">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="12.75">
-      <c r="F11" s="7"/>
+    <row r="11" spans="1:19" s="35" customFormat="1" ht="15">
+      <c r="A11" s="30">
+        <v>21048785</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="30">
+        <v>176</v>
+      </c>
+      <c r="J11" s="32">
+        <v>39.6</v>
+      </c>
+      <c r="K11" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="N11" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="O11" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="P11" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q11" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="R11" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="S11" s="34">
+        <v>25</v>
+      </c>
     </row>
     <row r="12" spans="1:19" ht="12.75">
       <c r="F12" s="7"/>

--- a/routes/Plant_001_masterdata.xlsx
+++ b/routes/Plant_001_masterdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aureoleinc-my.sharepoint.com/personal/suraj_patil_vegam_co/Documents/Documents/GitHub/GreenInkTechnologies-SWANSON/routes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{07AE9A56-8872-4CC4-BBCB-10AFAE46FAA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC198CA1-33B6-45FD-9BDE-D31CB75EEEB2}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{07AE9A56-8872-4CC4-BBCB-10AFAE46FAA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE7D93DD-AA9E-47C1-A7A8-15D12078806F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -611,8 +611,8 @@
   </sheetPr>
   <dimension ref="A1:S997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -620,7 +620,7 @@
     <col min="1" max="1" width="14.42578125" style="1"/>
     <col min="2" max="2" width="49.42578125" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" customWidth="1"/>
     <col min="5" max="5" width="26.7109375" style="11" customWidth="1"/>
     <col min="6" max="6" width="56.42578125" customWidth="1"/>
     <col min="7" max="7" width="10.85546875" customWidth="1"/>
@@ -960,7 +960,7 @@
         <v>176</v>
       </c>
       <c r="J6" s="27">
-        <v>39.6</v>
+        <v>31.68</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>16</v>

--- a/routes/Plant_001_masterdata.xlsx
+++ b/routes/Plant_001_masterdata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aureoleinc-my.sharepoint.com/personal/suraj_patil_vegam_co/Documents/Documents/GitHub/GreenInkTechnologies-SWANSON/routes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aureoleinc-my.sharepoint.com/personal/suraj_patil_vegam_co/Documents/Documents/GitHub/GreenInkTechnologies-SWANSON_New/GreenInkTechnologies-SWANSON/routes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{07AE9A56-8872-4CC4-BBCB-10AFAE46FAA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE7D93DD-AA9E-47C1-A7A8-15D12078806F}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{07AE9A56-8872-4CC4-BBCB-10AFAE46FAA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1593B8D9-8191-4BAE-B317-FFB59505AEE0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -960,7 +960,7 @@
         <v>176</v>
       </c>
       <c r="J6" s="27">
-        <v>31.68</v>
+        <v>39.6</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>16</v>

--- a/routes/Plant_001_masterdata.xlsx
+++ b/routes/Plant_001_masterdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aureoleinc-my.sharepoint.com/personal/suraj_patil_vegam_co/Documents/Documents/GitHub/GreenInkTechnologies-SWANSON_New/GreenInkTechnologies-SWANSON/routes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aureoleinc-my.sharepoint.com/personal/suraj_patil_vegam_co/Documents/Documents/GitHub/GreenInkTechnologies-SWANSON_latest/GreenInkTechnologies-SWANSON/routes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{07AE9A56-8872-4CC4-BBCB-10AFAE46FAA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1593B8D9-8191-4BAE-B317-FFB59505AEE0}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{07AE9A56-8872-4CC4-BBCB-10AFAE46FAA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB529338-0CFE-4E0E-BFE1-898D9C38474B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -611,8 +611,8 @@
   </sheetPr>
   <dimension ref="A1:S997"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1255,7 +1255,7 @@
         <v>176</v>
       </c>
       <c r="J11" s="32">
-        <v>39.6</v>
+        <v>264.88</v>
       </c>
       <c r="K11" s="33" t="s">
         <v>16</v>

--- a/routes/Plant_001_masterdata.xlsx
+++ b/routes/Plant_001_masterdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aureoleinc-my.sharepoint.com/personal/suraj_patil_vegam_co/Documents/Documents/GitHub/GreenInkTechnologies-SWANSON_latest/GreenInkTechnologies-SWANSON/routes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{07AE9A56-8872-4CC4-BBCB-10AFAE46FAA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB529338-0CFE-4E0E-BFE1-898D9C38474B}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{07AE9A56-8872-4CC4-BBCB-10AFAE46FAA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD5B7C60-338C-459A-B464-182F4A0E06DA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -408,6 +408,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
@@ -612,7 +616,7 @@
   <dimension ref="A1:S997"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1255,7 +1259,7 @@
         <v>176</v>
       </c>
       <c r="J11" s="32">
-        <v>264.88</v>
+        <v>24.08</v>
       </c>
       <c r="K11" s="33" t="s">
         <v>16</v>

--- a/routes/Plant_001_masterdata.xlsx
+++ b/routes/Plant_001_masterdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aureoleinc-my.sharepoint.com/personal/suraj_patil_vegam_co/Documents/Documents/GitHub/GreenInkTechnologies-SWANSON_latest/GreenInkTechnologies-SWANSON/routes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{07AE9A56-8872-4CC4-BBCB-10AFAE46FAA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD5B7C60-338C-459A-B464-182F4A0E06DA}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{07AE9A56-8872-4CC4-BBCB-10AFAE46FAA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4CA541FA-B245-4B3C-8010-499B2719EF70}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1259,7 +1259,7 @@
         <v>176</v>
       </c>
       <c r="J11" s="32">
-        <v>24.08</v>
+        <v>39.6</v>
       </c>
       <c r="K11" s="33" t="s">
         <v>16</v>

--- a/routes/Plant_001_masterdata.xlsx
+++ b/routes/Plant_001_masterdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aureoleinc-my.sharepoint.com/personal/suraj_patil_vegam_co/Documents/Documents/GitHub/GreenInkTechnologies-SWANSON_latest/GreenInkTechnologies-SWANSON/routes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aureoleinc-my.sharepoint.com/personal/suraj_patil_vegam_co/Documents/Documents/GitHub/GreenInkTechnologies-SWANSON_v2/GreenInkTechnologies-SWANSON/routes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{07AE9A56-8872-4CC4-BBCB-10AFAE46FAA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4CA541FA-B245-4B3C-8010-499B2719EF70}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{07AE9A56-8872-4CC4-BBCB-10AFAE46FAA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{605E33A4-18FA-4DBA-A196-0D322A9D10AF}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="49">
   <si>
     <t>IRMSGCAS</t>
   </si>
@@ -151,9 +151,6 @@
     <t>APE-176(18)CP(FGC-NEEM)</t>
   </si>
   <si>
-    <t>FI SWA 18gsm CW176mmRD750mmWH BS RR 1CP FGC (NEEM)</t>
-  </si>
-  <si>
     <t>00003055</t>
   </si>
   <si>
@@ -163,7 +160,13 @@
     <t>APE-176(18)CP(EASY JET)</t>
   </si>
   <si>
-    <t>FI SWA 18gsm CW176mmRD650mmWH BS RR 1CP(EASY JET)</t>
+    <t>00004986</t>
+  </si>
+  <si>
+    <t>FI SWA 18gsm CW176mmRD740mmWH BS RR 1CP FGC (NEEM)</t>
+  </si>
+  <si>
+    <t>FI SWA 18gsm CW176mmRD740mmWH BS RR 1CP(EASY JET)</t>
   </si>
 </sst>
 </file>
@@ -408,10 +411,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
@@ -615,8 +614,8 @@
   </sheetPr>
   <dimension ref="A1:S997"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -626,7 +625,7 @@
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
     <col min="4" max="4" width="30.7109375" customWidth="1"/>
     <col min="5" max="5" width="26.7109375" style="11" customWidth="1"/>
-    <col min="6" max="6" width="56.42578125" customWidth="1"/>
+    <col min="6" max="6" width="62.28515625" customWidth="1"/>
     <col min="7" max="7" width="10.85546875" customWidth="1"/>
     <col min="8" max="8" width="14.5703125" customWidth="1"/>
     <col min="9" max="9" width="10.85546875" style="1" customWidth="1"/>
@@ -935,7 +934,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15">
+    <row r="6" spans="1:19" ht="15.75" customHeight="1">
       <c r="A6" s="14">
         <v>90256104</v>
       </c>
@@ -949,10 +948,10 @@
         <v>42</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>14</v>
@@ -1185,10 +1184,10 @@
         <v>21</v>
       </c>
       <c r="E10" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="21" t="s">
         <v>44</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>45</v>
       </c>
       <c r="G10" s="21" t="s">
         <v>14</v>
@@ -1241,13 +1240,13 @@
         <v>19</v>
       </c>
       <c r="D11" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="31" t="s">
-        <v>27</v>
-      </c>
       <c r="F11" s="30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G11" s="30" t="s">
         <v>14</v>

--- a/routes/Plant_001_masterdata.xlsx
+++ b/routes/Plant_001_masterdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aureoleinc-my.sharepoint.com/personal/suraj_patil_vegam_co/Documents/Documents/GitHub/GreenInkTechnologies-SWANSON_v2/GreenInkTechnologies-SWANSON/routes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{07AE9A56-8872-4CC4-BBCB-10AFAE46FAA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{605E33A4-18FA-4DBA-A196-0D322A9D10AF}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{07AE9A56-8872-4CC4-BBCB-10AFAE46FAA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5231A0FB-4453-4BB7-8A36-64B2345EA6D0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="51">
   <si>
     <t>IRMSGCAS</t>
   </si>
@@ -167,6 +167,12 @@
   </si>
   <si>
     <t>FI SWA 18gsm CW176mmRD740mmWH BS RR 1CP(EASY JET)</t>
+  </si>
+  <si>
+    <t>APE-176(18)CP(WONDER WOMAN)</t>
+  </si>
+  <si>
+    <t>FI SWA 18gsm CW176mmRD550mmWH BS RR 1CP(WONDER WOMAN)</t>
   </si>
 </sst>
 </file>
@@ -301,7 +307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -394,6 +400,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -614,8 +623,8 @@
   </sheetPr>
   <dimension ref="A1:S997"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1288,11 +1297,123 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="12.75">
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="1:19" ht="12.75">
-      <c r="F13" s="7"/>
+    <row r="12" spans="1:19" ht="15">
+      <c r="A12" s="36">
+        <v>21048785</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="36">
+        <v>176</v>
+      </c>
+      <c r="J12" s="28">
+        <v>53.85</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S12" s="22">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="15">
+      <c r="A13" s="36">
+        <v>21064567</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="36">
+        <v>176</v>
+      </c>
+      <c r="J13" s="28">
+        <v>28.51</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S13" s="22">
+        <v>25</v>
+      </c>
     </row>
     <row r="14" spans="1:19" ht="12.75">
       <c r="F14" s="7"/>

--- a/routes/Plant_001_masterdata.xlsx
+++ b/routes/Plant_001_masterdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aureoleinc-my.sharepoint.com/personal/suraj_patil_vegam_co/Documents/Documents/GitHub/GreenInkTechnologies-SWANSON_v2/GreenInkTechnologies-SWANSON/routes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{07AE9A56-8872-4CC4-BBCB-10AFAE46FAA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5231A0FB-4453-4BB7-8A36-64B2345EA6D0}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:1_{07AE9A56-8872-4CC4-BBCB-10AFAE46FAA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF0BBCE3-424B-4F11-8825-76E513960FD1}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="390" windowWidth="20490" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="52">
   <si>
     <t>IRMSGCAS</t>
   </si>
@@ -173,6 +173,9 @@
   </si>
   <si>
     <t>FI SWA 18gsm CW176mmRD550mmWH BS RR 1CP(WONDER WOMAN)</t>
+  </si>
+  <si>
+    <t>123_21048785</t>
   </si>
 </sst>
 </file>
@@ -307,7 +310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -400,9 +403,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -624,7 +624,7 @@
   <dimension ref="A1:S997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:S13"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1239,8 +1239,8 @@
       </c>
     </row>
     <row r="11" spans="1:19" s="35" customFormat="1" ht="15">
-      <c r="A11" s="30">
-        <v>21048785</v>
+      <c r="A11" s="30" t="s">
+        <v>51</v>
       </c>
       <c r="B11" s="30" t="s">
         <v>18</v>
@@ -1298,31 +1298,31 @@
       </c>
     </row>
     <row r="12" spans="1:19" ht="15">
-      <c r="A12" s="36">
+      <c r="A12" s="21">
         <v>21048785</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="36" t="s">
+      <c r="D12" s="21" t="s">
         <v>45</v>
       </c>
       <c r="E12" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="36" t="s">
+      <c r="F12" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="G12" s="36" t="s">
+      <c r="G12" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="36" t="s">
+      <c r="H12" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="36">
+      <c r="I12" s="21">
         <v>176</v>
       </c>
       <c r="J12" s="28">
@@ -1357,31 +1357,31 @@
       </c>
     </row>
     <row r="13" spans="1:19" ht="15">
-      <c r="A13" s="36">
+      <c r="A13" s="21">
         <v>21064567</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="21" t="s">
         <v>49</v>
       </c>
       <c r="E13" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="36" t="s">
+      <c r="F13" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="G13" s="36" t="s">
+      <c r="G13" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="36" t="s">
+      <c r="H13" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="36">
+      <c r="I13" s="21">
         <v>176</v>
       </c>
       <c r="J13" s="28">

--- a/routes/Plant_001_masterdata.xlsx
+++ b/routes/Plant_001_masterdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aureoleinc-my.sharepoint.com/personal/suraj_patil_vegam_co/Documents/Documents/GitHub/GreenInkTechnologies-SWANSON_v2/GreenInkTechnologies-SWANSON/routes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:1_{07AE9A56-8872-4CC4-BBCB-10AFAE46FAA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF0BBCE3-424B-4F11-8825-76E513960FD1}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{07AE9A56-8872-4CC4-BBCB-10AFAE46FAA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C83F9EBC-1B38-491F-8895-582EA39CD05E}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="390" windowWidth="20490" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -624,7 +624,7 @@
   <dimension ref="A1:S997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1326,7 +1326,7 @@
         <v>176</v>
       </c>
       <c r="J12" s="28">
-        <v>53.85</v>
+        <v>53.86</v>
       </c>
       <c r="K12" s="6" t="s">
         <v>16</v>

--- a/routes/Plant_001_masterdata.xlsx
+++ b/routes/Plant_001_masterdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aureoleinc-my.sharepoint.com/personal/suraj_patil_vegam_co/Documents/Documents/GitHub/GreenInkTechnologies-SWANSON_v2/GreenInkTechnologies-SWANSON/routes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{07AE9A56-8872-4CC4-BBCB-10AFAE46FAA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C83F9EBC-1B38-491F-8895-582EA39CD05E}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:1_{07AE9A56-8872-4CC4-BBCB-10AFAE46FAA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A73A99D7-1351-4E58-A51A-05E389B4155E}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -169,20 +169,20 @@
     <t>FI SWA 18gsm CW176mmRD740mmWH BS RR 1CP(EASY JET)</t>
   </si>
   <si>
-    <t>APE-176(18)CP(WONDER WOMAN)</t>
-  </si>
-  <si>
-    <t>FI SWA 18gsm CW176mmRD550mmWH BS RR 1CP(WONDER WOMAN)</t>
-  </si>
-  <si>
     <t>123_21048785</t>
+  </si>
+  <si>
+    <t>APE-176(18)CP(LCC+WW)BS</t>
+  </si>
+  <si>
+    <t>FI SWA 18gsm CW176mmRD750mmWH BS RR 1CP(WONDER WOMAN)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -236,8 +236,14 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -259,6 +265,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -403,6 +415,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -623,8 +641,8 @@
   </sheetPr>
   <dimension ref="A1:S997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1240,7 +1258,7 @@
     </row>
     <row r="11" spans="1:19" s="35" customFormat="1" ht="15">
       <c r="A11" s="30" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B11" s="30" t="s">
         <v>18</v>
@@ -1366,14 +1384,14 @@
       <c r="C13" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="21" t="s">
-        <v>49</v>
+      <c r="D13" s="36" t="s">
+        <v>50</v>
       </c>
       <c r="E13" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="21" t="s">
-        <v>50</v>
+      <c r="F13" s="37" t="s">
+        <v>51</v>
       </c>
       <c r="G13" s="21" t="s">
         <v>14</v>

--- a/routes/Plant_001_masterdata.xlsx
+++ b/routes/Plant_001_masterdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aureoleinc-my.sharepoint.com/personal/suraj_patil_vegam_co/Documents/Documents/GitHub/GreenInkTechnologies-SWANSON_v2/GreenInkTechnologies-SWANSON/routes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aureo\OneDrive - Aureole Technologies Private Limited\Documents\GitHub\GreenInkTechnologies-SWANSON_latest\GreenInkTechnologies-SWANSON\routes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:1_{07AE9A56-8872-4CC4-BBCB-10AFAE46FAA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A73A99D7-1351-4E58-A51A-05E389B4155E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52023AB-8720-4F49-ACDB-3ABCEC961330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="390" windowWidth="20460" windowHeight="10770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="55">
   <si>
     <t>IRMSGCAS</t>
   </si>
@@ -176,6 +176,15 @@
   </si>
   <si>
     <t>FI SWA 18gsm CW176mmRD750mmWH BS RR 1CP(WONDER WOMAN)</t>
+  </si>
+  <si>
+    <t>APE-168(16)C</t>
+  </si>
+  <si>
+    <t>00004833</t>
+  </si>
+  <si>
+    <t>FI SWA 16gsm CW168mmRD400mmWH BS RR</t>
   </si>
 </sst>
 </file>
@@ -243,7 +252,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -265,12 +274,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,10 +418,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -641,8 +644,8 @@
   </sheetPr>
   <dimension ref="A1:S997"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1316,31 +1319,31 @@
       </c>
     </row>
     <row r="12" spans="1:19" ht="15">
-      <c r="A12" s="21">
+      <c r="A12" s="37">
         <v>21048785</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="37" t="s">
         <v>45</v>
       </c>
       <c r="E12" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="21" t="s">
+      <c r="H12" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="21">
+      <c r="I12" s="37">
         <v>176</v>
       </c>
       <c r="J12" s="28">
@@ -1375,31 +1378,31 @@
       </c>
     </row>
     <row r="13" spans="1:19" ht="15">
-      <c r="A13" s="21">
+      <c r="A13" s="37">
         <v>21064567</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="37" t="s">
         <v>50</v>
       </c>
       <c r="E13" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="37" t="s">
+      <c r="F13" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="G13" s="21" t="s">
+      <c r="G13" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="21" t="s">
+      <c r="H13" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="21">
+      <c r="I13" s="37">
         <v>176</v>
       </c>
       <c r="J13" s="28">
@@ -1433,8 +1436,64 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="12.75">
-      <c r="F14" s="7"/>
+    <row r="14" spans="1:19" ht="15">
+      <c r="A14" s="37">
+        <v>21081576</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="37">
+        <v>168</v>
+      </c>
+      <c r="J14" s="28">
+        <v>13.44</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S14" s="22">
+        <v>25</v>
+      </c>
     </row>
     <row r="15" spans="1:19" ht="12.75">
       <c r="F15" s="7"/>

--- a/routes/Plant_001_masterdata.xlsx
+++ b/routes/Plant_001_masterdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aureo\OneDrive - Aureole Technologies Private Limited\Documents\GitHub\GreenInkTechnologies-SWANSON_latest\GreenInkTechnologies-SWANSON\routes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aureoleinc-my.sharepoint.com/personal/suraj_patil_vegam_co/Documents/Documents/GitHub/GreenInkTechnologies-SWANSON_latest/GreenInkTechnologies-SWANSON/routes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52023AB-8720-4F49-ACDB-3ABCEC961330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{E52023AB-8720-4F49-ACDB-3ABCEC961330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E0215C0-CAE5-4ADD-9147-EA797772885A}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="390" windowWidth="20460" windowHeight="10770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="57">
   <si>
     <t>IRMSGCAS</t>
   </si>
@@ -185,6 +185,12 @@
   </si>
   <si>
     <t>FI SWA 16gsm CW168mmRD400mmWH BS RR</t>
+  </si>
+  <si>
+    <t>APE-168(16)CP(KRANTI)</t>
+  </si>
+  <si>
+    <t>FI SWA 16gsm CW168mmRD400mmWH BS RR 1CP(KRANTI)</t>
   </si>
 </sst>
 </file>
@@ -325,7 +331,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -421,8 +427,17 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -645,7 +660,7 @@
   <dimension ref="A1:S997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:P14"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1319,31 +1334,31 @@
       </c>
     </row>
     <row r="12" spans="1:19" ht="15">
-      <c r="A12" s="37">
+      <c r="A12" s="21">
         <v>21048785</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="21" t="s">
         <v>45</v>
       </c>
       <c r="E12" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="37" t="s">
+      <c r="F12" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="G12" s="37" t="s">
+      <c r="G12" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="37" t="s">
+      <c r="H12" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="37">
+      <c r="I12" s="21">
         <v>176</v>
       </c>
       <c r="J12" s="28">
@@ -1378,16 +1393,16 @@
       </c>
     </row>
     <row r="13" spans="1:19" ht="15">
-      <c r="A13" s="37">
+      <c r="A13" s="21">
         <v>21064567</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="21" t="s">
         <v>50</v>
       </c>
       <c r="E13" s="29" t="s">
@@ -1396,13 +1411,13 @@
       <c r="F13" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="G13" s="37" t="s">
+      <c r="G13" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="37" t="s">
+      <c r="H13" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="37">
+      <c r="I13" s="21">
         <v>176</v>
       </c>
       <c r="J13" s="28">
@@ -1437,31 +1452,31 @@
       </c>
     </row>
     <row r="14" spans="1:19" ht="15">
-      <c r="A14" s="37">
+      <c r="A14" s="21">
         <v>21081576</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="21" t="s">
         <v>52</v>
       </c>
       <c r="E14" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="37" t="s">
+      <c r="F14" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="37" t="s">
+      <c r="G14" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="37" t="s">
+      <c r="H14" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="37">
+      <c r="I14" s="21">
         <v>168</v>
       </c>
       <c r="J14" s="28">
@@ -1495,8 +1510,64 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="12.75">
-      <c r="F15" s="7"/>
+    <row r="15" spans="1:19" ht="15">
+      <c r="A15" s="37">
+        <v>21088174</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="37">
+        <v>168</v>
+      </c>
+      <c r="J15" s="39">
+        <v>13.44</v>
+      </c>
+      <c r="K15" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="M15" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S15" s="22">
+        <v>25</v>
+      </c>
     </row>
     <row r="16" spans="1:19" ht="12.75">
       <c r="F16" s="7"/>

--- a/routes/Plant_001_masterdata.xlsx
+++ b/routes/Plant_001_masterdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b027ff85dd105e19/Documents/GitHub/Plant003_Nanliu Manufacturing India Private Limited/Nanliu_Manufacturing_India_Private_Limited/routes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aureoleinc-my.sharepoint.com/personal/suraj_patil_vegam_co/Documents/Documents/GitHub/GreenInkTechnologies-SWANSON_latest/GreenInkTechnologies-SWANSON/routes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="11_379C63833E19F6E18D8ECEACF38CE0B8A079318B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DEB9C828-1380-4CDC-8AA6-DD3C2E1B45B2}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{E52023AB-8720-4F49-ACDB-3ABCEC961330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5260995-4220-4AA8-B29E-9A3D365A23BB}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="57">
   <si>
     <t>IRMSGCAS</t>
   </si>
@@ -73,34 +73,131 @@
     <t>Manual Typing</t>
   </si>
   <si>
-    <t>Nanliu Manufacturing India Private Limited</t>
-  </si>
-  <si>
-    <t>Sanand, Gujarat</t>
-  </si>
-  <si>
-    <t>ATBAQL 33gsm</t>
-  </si>
-  <si>
-    <t>00003768 Rev1</t>
-  </si>
-  <si>
-    <t>ATBAQL 33gsm 95mm CW NL India</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATBAQL 33gsm 90mm CW NL India</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>Number_of_Slits</t>
+  </si>
+  <si>
+    <t>Swanson Plastics (India) Private Limited</t>
+  </si>
+  <si>
+    <t>Bhuipal, Goa</t>
+  </si>
+  <si>
+    <t>APE-102(18)C</t>
+  </si>
+  <si>
+    <t>APE-168(18)C</t>
+  </si>
+  <si>
+    <t>APE-168(18)CP(KRANTI)</t>
+  </si>
+  <si>
+    <t>APE-168(18)CP(NIGHT)</t>
+  </si>
+  <si>
+    <t>WHITE-214(18)</t>
+  </si>
+  <si>
+    <t>WHITE-234(18)</t>
+  </si>
+  <si>
+    <t>99368714</t>
+  </si>
+  <si>
+    <t>00001429</t>
+  </si>
+  <si>
+    <t>99508624</t>
+  </si>
+  <si>
+    <t>FI SWA 18gsm CW102mmRD455mmWH BS RR</t>
+  </si>
+  <si>
+    <t>FI SWA 18gsm CW168mmRD400mmWH BS RR</t>
+  </si>
+  <si>
+    <t>FI SWA 18gsm CW168mmRD400mmWH BS RR 1CP(KRANTI)</t>
+  </si>
+  <si>
+    <t>FI SWA 18gsm CW168mmRD400mmWH BS RR 1CP(NIGHT)</t>
+  </si>
+  <si>
+    <t>FI SWA 18gsm CW214mmRD510mmWH WF RR</t>
+  </si>
+  <si>
+    <t>FI SWA 18gsm CW234mmRD520mmWH WF RR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI Number </t>
+  </si>
+  <si>
+    <t>UBS23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pallet Number </t>
+  </si>
+  <si>
+    <t>Gross WT of one Pallet and Packagematerial</t>
+  </si>
+  <si>
+    <t>NETWT</t>
+  </si>
+  <si>
+    <t>APE-176(18)CP(LCC+NEEM)</t>
+  </si>
+  <si>
+    <t>FI SWA 18gsm CW176mmRD550mmWH BS RR 1CP LCC+ (NEEM)</t>
+  </si>
+  <si>
+    <t>APE-176(18)CP(FGC-NEEM)</t>
+  </si>
+  <si>
+    <t>00003055</t>
+  </si>
+  <si>
+    <t>FI SWA 18gsm CW168mmRD415mmWH BS RR</t>
+  </si>
+  <si>
+    <t>APE-176(18)CP(EASY JET)</t>
+  </si>
+  <si>
+    <t>00004986</t>
+  </si>
+  <si>
+    <t>FI SWA 18gsm CW176mmRD740mmWH BS RR 1CP FGC (NEEM)</t>
+  </si>
+  <si>
+    <t>FI SWA 18gsm CW176mmRD740mmWH BS RR 1CP(EASY JET)</t>
+  </si>
+  <si>
+    <t>123_21048785</t>
+  </si>
+  <si>
+    <t>APE-176(18)CP(LCC+WW)BS</t>
+  </si>
+  <si>
+    <t>FI SWA 18gsm CW176mmRD750mmWH BS RR 1CP(WONDER WOMAN)</t>
+  </si>
+  <si>
+    <t>APE-168(16)C</t>
+  </si>
+  <si>
+    <t>00004833</t>
+  </si>
+  <si>
+    <t>FI SWA 16gsm CW168mmRD400mmWH BS RR</t>
+  </si>
+  <si>
+    <t>APE-168(16)CP(KRANTI)</t>
+  </si>
+  <si>
+    <t>FI SWA 16gsm CW168mmRD400mmWH BS RR 1CP(KRANTI)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -136,8 +233,32 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -156,8 +277,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -181,33 +314,38 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="42">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -220,22 +358,96 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -251,6 +463,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -454,10 +670,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:O999"/>
+  <dimension ref="A1:S997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -465,19 +681,23 @@
     <col min="1" max="1" width="14.42578125" style="1"/>
     <col min="2" max="2" width="49.42578125" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="5" max="5" width="27.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="45.7109375" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" style="11" customWidth="1"/>
+    <col min="6" max="6" width="62.28515625" customWidth="1"/>
     <col min="7" max="7" width="10.85546875" customWidth="1"/>
     <col min="8" max="8" width="14.5703125" customWidth="1"/>
     <col min="9" max="9" width="10.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="19.5703125" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" customWidth="1"/>
-    <col min="13" max="13" width="20.42578125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="17" customWidth="1"/>
-    <col min="15" max="15" width="26" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="19.5703125" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" customWidth="1"/>
+    <col min="14" max="14" width="20.42578125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="17" customWidth="1"/>
+    <col min="16" max="16" width="26" style="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1"/>
+    <col min="19" max="19" width="39.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="12.75">
+    <row r="1" spans="1:19" ht="12.75">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -490,7 +710,7 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
@@ -505,43 +725,55 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" ht="15">
-      <c r="A2" s="8">
-        <v>90109685</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="10" t="s">
+      <c r="Q1" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="S1" s="20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="9" customFormat="1" ht="15">
+      <c r="A2" s="14">
+        <v>99396168</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="C2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="D2" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>21</v>
+      <c r="E2" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>29</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>14</v>
@@ -549,11 +781,11 @@
       <c r="H2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="8">
-        <v>95</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>16</v>
+      <c r="I2" s="17">
+        <v>102</v>
+      </c>
+      <c r="J2" s="14">
+        <v>9.18</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>16</v>
@@ -570,25 +802,37 @@
       <c r="O2" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" ht="15">
-      <c r="A3" s="8">
-        <v>90252662</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="P2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S2" s="9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15">
+      <c r="A3" s="14">
+        <v>91876235</v>
+      </c>
+      <c r="B3" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="C3" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>22</v>
+      <c r="D3" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>30</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>14</v>
@@ -596,11 +840,11 @@
       <c r="H3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="8">
-        <v>90</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>16</v>
+      <c r="I3" s="25">
+        <v>168</v>
+      </c>
+      <c r="J3" s="25">
+        <v>14.21</v>
       </c>
       <c r="K3" s="6" t="s">
         <v>16</v>
@@ -617,62 +861,728 @@
       <c r="O3" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" ht="12.75">
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="1:15" ht="12.75">
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="1:15" ht="12.75">
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:15" ht="12.75">
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:15" ht="12.75">
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:15" ht="12.75">
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:15" s="1" customFormat="1" ht="12.75">
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="F10" s="7"/>
-      <c r="G10"/>
-      <c r="H10"/>
-      <c r="J10"/>
-      <c r="K10"/>
-      <c r="L10"/>
-      <c r="N10"/>
-    </row>
-    <row r="11" spans="1:15" s="1" customFormat="1" ht="12.75">
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="F11" s="7"/>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="J11"/>
-      <c r="K11"/>
-      <c r="L11"/>
-      <c r="N11"/>
-    </row>
-    <row r="12" spans="1:15" ht="12.75">
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="1:15" ht="12.75">
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="1:15" ht="12.75">
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="1:15" ht="12.75">
-      <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="1:15" ht="12.75">
+      <c r="P3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S3" s="9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15">
+      <c r="A4" s="14">
+        <v>90254197</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="25">
+        <v>168</v>
+      </c>
+      <c r="J4" s="25">
+        <v>14.21</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S4" s="9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15">
+      <c r="A5" s="14">
+        <v>90486174</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="25">
+        <v>168</v>
+      </c>
+      <c r="J5" s="26">
+        <v>14.21</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S5" s="9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A6" s="14">
+        <v>90256104</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="25">
+        <v>176</v>
+      </c>
+      <c r="J6" s="27">
+        <v>39.6</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S6" s="9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="15">
+      <c r="A7" s="14">
+        <v>91000940</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="25">
+        <v>214</v>
+      </c>
+      <c r="J7" s="25">
+        <v>25.04</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S7" s="9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" s="1" customFormat="1" ht="15">
+      <c r="A8" s="14">
+        <v>96977186</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="25">
+        <v>234</v>
+      </c>
+      <c r="J8" s="25">
+        <v>29.48</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S8" s="9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="1" customFormat="1" ht="15">
+      <c r="A9" s="1">
+        <v>20262479</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="21">
+        <v>176</v>
+      </c>
+      <c r="J9" s="28">
+        <v>28.51</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S9" s="9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15">
+      <c r="A10" s="21">
+        <v>91899840</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="21">
+        <v>168</v>
+      </c>
+      <c r="J10" s="21">
+        <v>14.21</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S10" s="9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" s="35" customFormat="1" ht="15">
+      <c r="A11" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="30">
+        <v>176</v>
+      </c>
+      <c r="J11" s="32">
+        <v>39.6</v>
+      </c>
+      <c r="K11" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="N11" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="O11" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="P11" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q11" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="R11" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="S11" s="34">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="15">
+      <c r="A12" s="21">
+        <v>21048785</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="21">
+        <v>176</v>
+      </c>
+      <c r="J12" s="28">
+        <v>53.86</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S12" s="22">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="15">
+      <c r="A13" s="21">
+        <v>21064567</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="21">
+        <v>176</v>
+      </c>
+      <c r="J13" s="28">
+        <v>28.51</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S13" s="22">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="15">
+      <c r="A14" s="21">
+        <v>21081576</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="21">
+        <v>168</v>
+      </c>
+      <c r="J14" s="28">
+        <v>13.44</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S14" s="22">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="15">
+      <c r="A15" s="41">
+        <v>21088174</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="37">
+        <v>168</v>
+      </c>
+      <c r="J15" s="39">
+        <v>13.44</v>
+      </c>
+      <c r="K15" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="M15" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S15" s="22">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="12.75">
       <c r="F16" s="7"/>
     </row>
     <row r="17" spans="6:6" ht="12.75">
@@ -3582,12 +4492,8 @@
     <row r="985" spans="6:6" ht="12.75">
       <c r="F985" s="7"/>
     </row>
-    <row r="986" spans="6:6" ht="12.75">
-      <c r="F986" s="7"/>
-    </row>
-    <row r="987" spans="6:6" ht="12.75">
-      <c r="F987" s="7"/>
-    </row>
+    <row r="986" spans="6:6" ht="12.75"/>
+    <row r="987" spans="6:6" ht="12.75"/>
     <row r="988" spans="6:6" ht="12.75"/>
     <row r="989" spans="6:6" ht="12.75"/>
     <row r="990" spans="6:6" ht="12.75"/>
@@ -3598,8 +4504,6 @@
     <row r="995" ht="12.75"/>
     <row r="996" ht="12.75"/>
     <row r="997" ht="12.75"/>
-    <row r="998" ht="12.75"/>
-    <row r="999" ht="12.75"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/routes/Plant_001_masterdata.xlsx
+++ b/routes/Plant_001_masterdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aureoleinc-my.sharepoint.com/personal/suraj_patil_vegam_co/Documents/Documents/GitHub/GreenInkTechnologies-SWANSON_latest/GreenInkTechnologies-SWANSON/routes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{E52023AB-8720-4F49-ACDB-3ABCEC961330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E0215C0-CAE5-4ADD-9147-EA797772885A}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{E52023AB-8720-4F49-ACDB-3ABCEC961330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5419466-FCD5-42CB-924E-4CA5751779FA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -258,7 +258,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -280,6 +280,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,7 +337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -427,17 +433,20 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -660,7 +669,7 @@
   <dimension ref="A1:S997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1511,7 +1520,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" ht="15">
-      <c r="A15" s="37">
+      <c r="A15" s="41">
         <v>21088174</v>
       </c>
       <c r="B15" s="37" t="s">

--- a/routes/Plant_001_masterdata.xlsx
+++ b/routes/Plant_001_masterdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aureoleinc-my.sharepoint.com/personal/suraj_patil_vegam_co/Documents/Documents/GitHub/GreenInkTechnologies-SWANSON_latest/GreenInkTechnologies-SWANSON/routes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{E52023AB-8720-4F49-ACDB-3ABCEC961330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5419466-FCD5-42CB-924E-4CA5751779FA}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{E52023AB-8720-4F49-ACDB-3ABCEC961330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47F12E11-D43F-4266-82CC-17A3D9B3267E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="55">
   <si>
     <t>IRMSGCAS</t>
   </si>
@@ -148,9 +148,6 @@
     <t>FI SWA 18gsm CW176mmRD550mmWH BS RR 1CP LCC+ (NEEM)</t>
   </si>
   <si>
-    <t>APE-176(18)CP(FGC-NEEM)</t>
-  </si>
-  <si>
     <t>00003055</t>
   </si>
   <si>
@@ -161,9 +158,6 @@
   </si>
   <si>
     <t>00004986</t>
-  </si>
-  <si>
-    <t>FI SWA 18gsm CW176mmRD740mmWH BS RR 1CP FGC (NEEM)</t>
   </si>
   <si>
     <t>FI SWA 18gsm CW176mmRD740mmWH BS RR 1CP(EASY JET)</t>
@@ -197,7 +191,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -235,12 +229,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -337,7 +325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -393,7 +381,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -408,21 +396,18 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -430,22 +415,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -669,7 +654,7 @@
   <dimension ref="A1:S997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -988,44 +973,44 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A6" s="14">
-        <v>90256104</v>
-      </c>
-      <c r="B6" s="22" t="s">
+    <row r="6" spans="1:19" ht="15">
+      <c r="A6" s="40">
+        <v>21088174</v>
+      </c>
+      <c r="B6" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="6" t="s">
+      <c r="D6" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="25">
-        <v>176</v>
-      </c>
-      <c r="J6" s="27">
-        <v>39.6</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="M6" s="6" t="s">
+      <c r="I6" s="36">
+        <v>168</v>
+      </c>
+      <c r="J6" s="38">
+        <v>13.44</v>
+      </c>
+      <c r="K6" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="39" t="s">
         <v>16</v>
       </c>
       <c r="N6" s="6" t="s">
@@ -1043,7 +1028,7 @@
       <c r="R6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="S6" s="9">
+      <c r="S6" s="22">
         <v>25</v>
       </c>
     </row>
@@ -1193,7 +1178,7 @@
       <c r="I9" s="21">
         <v>176</v>
       </c>
-      <c r="J9" s="28">
+      <c r="J9" s="27">
         <v>28.51</v>
       </c>
       <c r="K9" s="6" t="s">
@@ -1237,11 +1222,11 @@
       <c r="D10" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="21" t="s">
         <v>43</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>44</v>
       </c>
       <c r="G10" s="21" t="s">
         <v>14</v>
@@ -1283,62 +1268,62 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="35" customFormat="1" ht="15">
-      <c r="A11" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="30" t="s">
+    <row r="11" spans="1:19" s="34" customFormat="1" ht="15">
+      <c r="A11" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="F11" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="30" t="s">
+      <c r="G11" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="30" t="s">
+      <c r="H11" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="30">
+      <c r="I11" s="29">
         <v>176</v>
       </c>
-      <c r="J11" s="32">
+      <c r="J11" s="31">
         <v>39.6</v>
       </c>
-      <c r="K11" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="L11" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="M11" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="N11" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="O11" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="P11" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q11" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="R11" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="S11" s="34">
+      <c r="K11" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="N11" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="O11" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="P11" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q11" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="R11" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="S11" s="33">
         <v>25</v>
       </c>
     </row>
@@ -1353,13 +1338,13 @@
         <v>19</v>
       </c>
       <c r="D12" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="F12" s="21" t="s">
         <v>46</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>48</v>
       </c>
       <c r="G12" s="21" t="s">
         <v>14</v>
@@ -1370,7 +1355,7 @@
       <c r="I12" s="21">
         <v>176</v>
       </c>
-      <c r="J12" s="28">
+      <c r="J12" s="27">
         <v>53.86</v>
       </c>
       <c r="K12" s="6" t="s">
@@ -1412,13 +1397,13 @@
         <v>19</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="36" t="s">
-        <v>51</v>
+      <c r="F13" s="35" t="s">
+        <v>49</v>
       </c>
       <c r="G13" s="21" t="s">
         <v>14</v>
@@ -1429,7 +1414,7 @@
       <c r="I13" s="21">
         <v>176</v>
       </c>
-      <c r="J13" s="28">
+      <c r="J13" s="27">
         <v>28.51</v>
       </c>
       <c r="K13" s="6" t="s">
@@ -1471,13 +1456,13 @@
         <v>19</v>
       </c>
       <c r="D14" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="21" t="s">
         <v>52</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>54</v>
       </c>
       <c r="G14" s="21" t="s">
         <v>14</v>
@@ -1488,7 +1473,7 @@
       <c r="I14" s="21">
         <v>168</v>
       </c>
-      <c r="J14" s="28">
+      <c r="J14" s="27">
         <v>13.44</v>
       </c>
       <c r="K14" s="6" t="s">
@@ -1516,65 +1501,6 @@
         <v>16</v>
       </c>
       <c r="S14" s="22">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="15">
-      <c r="A15" s="41">
-        <v>21088174</v>
-      </c>
-      <c r="B15" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" s="37">
-        <v>168</v>
-      </c>
-      <c r="J15" s="39">
-        <v>13.44</v>
-      </c>
-      <c r="K15" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="L15" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="M15" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="N15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="O15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="P15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="R15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="S15" s="22">
         <v>25</v>
       </c>
     </row>

--- a/routes/Plant_001_masterdata.xlsx
+++ b/routes/Plant_001_masterdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aureoleinc-my.sharepoint.com/personal/suraj_patil_vegam_co/Documents/Documents/GitHub/GreenInkTechnologies-SWANSON_latest/GreenInkTechnologies-SWANSON/routes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{E52023AB-8720-4F49-ACDB-3ABCEC961330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47F12E11-D43F-4266-82CC-17A3D9B3267E}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{E52023AB-8720-4F49-ACDB-3ABCEC961330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29319473-E3D7-4883-9152-BC3D09AAF395}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="56">
   <si>
     <t>IRMSGCAS</t>
   </si>
@@ -185,6 +185,9 @@
   </si>
   <si>
     <t>FI SWA 16gsm CW168mmRD400mmWH BS RR 1CP(KRANTI)</t>
+  </si>
+  <si>
+    <t>FI SWA 18gsm CW168mmRD535mm 6IN WH BS RR</t>
   </si>
 </sst>
 </file>
@@ -325,7 +328,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -431,6 +434,13 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -654,7 +664,7 @@
   <dimension ref="A1:S997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1504,55 +1514,115 @@
         <v>25</v>
       </c>
     </row>
+    <row r="15" spans="1:19" s="42" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A15" s="43">
+        <v>21235555</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="43">
+        <v>168</v>
+      </c>
+      <c r="J15" s="27">
+        <v>24.19</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S15" s="22">
+        <v>25</v>
+      </c>
+    </row>
     <row r="16" spans="1:19" ht="12.75">
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="6:6" ht="12.75">
+    <row r="17" spans="1:6" ht="12.75">
+      <c r="A17" s="41"/>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="6:6" ht="12.75">
+    <row r="18" spans="1:6" ht="12.75">
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="6:6" ht="12.75">
+    <row r="19" spans="1:6" ht="12.75">
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="6:6" ht="12.75">
+    <row r="20" spans="1:6" ht="12.75">
       <c r="F20" s="7"/>
     </row>
-    <row r="21" spans="6:6" ht="12.75">
+    <row r="21" spans="1:6" ht="12.75">
       <c r="F21" s="7"/>
     </row>
-    <row r="22" spans="6:6" ht="12.75">
+    <row r="22" spans="1:6" ht="12.75">
       <c r="F22" s="7"/>
     </row>
-    <row r="23" spans="6:6" ht="12.75">
+    <row r="23" spans="1:6" ht="12.75">
       <c r="F23" s="7"/>
     </row>
-    <row r="24" spans="6:6" ht="12.75">
+    <row r="24" spans="1:6" ht="12.75">
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="6:6" ht="12.75">
+    <row r="25" spans="1:6" ht="12.75">
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="6:6" ht="12.75">
+    <row r="26" spans="1:6" ht="12.75">
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="6:6" ht="12.75">
+    <row r="27" spans="1:6" ht="12.75">
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="6:6" ht="12.75">
+    <row r="28" spans="1:6" ht="12.75">
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="6:6" ht="12.75">
+    <row r="29" spans="1:6" ht="12.75">
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="6:6" ht="12.75">
+    <row r="30" spans="1:6" ht="12.75">
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="6:6" ht="12.75">
+    <row r="31" spans="1:6" ht="12.75">
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="6:6" ht="12.75">
+    <row r="32" spans="1:6" ht="12.75">
       <c r="F32" s="7"/>
     </row>
     <row r="33" spans="6:6" ht="12.75">

--- a/routes/Plant_001_masterdata.xlsx
+++ b/routes/Plant_001_masterdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aureoleinc-my.sharepoint.com/personal/suraj_patil_vegam_co/Documents/Documents/GitHub/GreenInkTechnologies-SWANSON_latest/GreenInkTechnologies-SWANSON/routes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{E52023AB-8720-4F49-ACDB-3ABCEC961330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29319473-E3D7-4883-9152-BC3D09AAF395}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{E52023AB-8720-4F49-ACDB-3ABCEC961330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22EE9E22-1B95-4154-BFDE-E5B193DB67AA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -169,9 +169,6 @@
     <t>APE-176(18)CP(LCC+WW)BS</t>
   </si>
   <si>
-    <t>FI SWA 18gsm CW176mmRD750mmWH BS RR 1CP(WONDER WOMAN)</t>
-  </si>
-  <si>
     <t>APE-168(16)C</t>
   </si>
   <si>
@@ -188,6 +185,9 @@
   </si>
   <si>
     <t>FI SWA 18gsm CW168mmRD535mm 6IN WH BS RR</t>
+  </si>
+  <si>
+    <t>FI SWA 18gsm CW176mmRD560mmWH BS RR 1CP(WONDER WOMAN)</t>
   </si>
 </sst>
 </file>
@@ -249,7 +249,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -277,6 +277,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,7 +334,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -418,9 +424,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -436,11 +439,11 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -663,8 +666,8 @@
   </sheetPr>
   <dimension ref="A1:S997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -674,7 +677,7 @@
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
     <col min="4" max="4" width="30.7109375" customWidth="1"/>
     <col min="5" max="5" width="26.7109375" style="11" customWidth="1"/>
-    <col min="6" max="6" width="62.28515625" customWidth="1"/>
+    <col min="6" max="6" width="65" customWidth="1"/>
     <col min="7" max="7" width="10.85546875" customWidth="1"/>
     <col min="8" max="8" width="14.5703125" customWidth="1"/>
     <col min="9" max="9" width="10.85546875" style="1" customWidth="1"/>
@@ -984,43 +987,43 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="15">
-      <c r="A6" s="40">
+      <c r="A6" s="39">
         <v>21088174</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6" s="36" t="s">
+      <c r="G6" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="36" t="s">
+      <c r="H6" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="36">
+      <c r="I6" s="35">
         <v>168</v>
       </c>
-      <c r="J6" s="38">
+      <c r="J6" s="37">
         <v>13.44</v>
       </c>
-      <c r="K6" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="L6" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="M6" s="39" t="s">
+      <c r="K6" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="38" t="s">
         <v>16</v>
       </c>
       <c r="N6" s="6" t="s">
@@ -1406,14 +1409,14 @@
       <c r="C13" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="41" t="s">
         <v>48</v>
       </c>
       <c r="E13" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="35" t="s">
-        <v>49</v>
+      <c r="F13" s="42" t="s">
+        <v>55</v>
       </c>
       <c r="G13" s="21" t="s">
         <v>14</v>
@@ -1466,13 +1469,13 @@
         <v>19</v>
       </c>
       <c r="D14" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="F14" s="21" t="s">
         <v>51</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>52</v>
       </c>
       <c r="G14" s="21" t="s">
         <v>14</v>
@@ -1514,32 +1517,32 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:19" s="42" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A15" s="43">
+    <row r="15" spans="1:19" s="40" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A15" s="21">
         <v>21235555</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="43" t="s">
+      <c r="D15" s="21" t="s">
         <v>21</v>
       </c>
       <c r="E15" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="G15" s="43" t="s">
+      <c r="F15" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="43" t="s">
+      <c r="H15" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="43">
+      <c r="I15" s="21">
         <v>168</v>
       </c>
       <c r="J15" s="27">
@@ -1576,53 +1579,50 @@
     <row r="16" spans="1:19" ht="12.75">
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:6" ht="12.75">
-      <c r="A17" s="41"/>
+    <row r="17" spans="6:6" ht="12.75">
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:6" ht="12.75">
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="1:6" ht="12.75">
+    <row r="18" spans="6:6" ht="12.75"/>
+    <row r="19" spans="6:6" ht="12.75">
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:6" ht="12.75">
+    <row r="20" spans="6:6" ht="12.75">
       <c r="F20" s="7"/>
     </row>
-    <row r="21" spans="1:6" ht="12.75">
+    <row r="21" spans="6:6" ht="12.75">
       <c r="F21" s="7"/>
     </row>
-    <row r="22" spans="1:6" ht="12.75">
+    <row r="22" spans="6:6" ht="12.75">
       <c r="F22" s="7"/>
     </row>
-    <row r="23" spans="1:6" ht="12.75">
+    <row r="23" spans="6:6" ht="12.75">
       <c r="F23" s="7"/>
     </row>
-    <row r="24" spans="1:6" ht="12.75">
+    <row r="24" spans="6:6" ht="12.75">
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="1:6" ht="12.75">
+    <row r="25" spans="6:6" ht="12.75">
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="1:6" ht="12.75">
+    <row r="26" spans="6:6" ht="12.75">
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="1:6" ht="12.75">
+    <row r="27" spans="6:6" ht="12.75">
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="1:6" ht="12.75">
+    <row r="28" spans="6:6" ht="12.75">
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:6" ht="12.75">
+    <row r="29" spans="6:6" ht="12.75">
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:6" ht="12.75">
+    <row r="30" spans="6:6" ht="12.75">
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" ht="12.75">
+    <row r="31" spans="6:6" ht="12.75">
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:6" ht="12.75">
+    <row r="32" spans="6:6" ht="12.75">
       <c r="F32" s="7"/>
     </row>
     <row r="33" spans="6:6" ht="12.75">

--- a/routes/Plant_001_masterdata.xlsx
+++ b/routes/Plant_001_masterdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aureoleinc-my.sharepoint.com/personal/suraj_patil_vegam_co/Documents/Documents/GitHub/GreenInkTechnologies-SWANSON_latest/GreenInkTechnologies-SWANSON/routes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{E52023AB-8720-4F49-ACDB-3ABCEC961330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22EE9E22-1B95-4154-BFDE-E5B193DB67AA}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{E52023AB-8720-4F49-ACDB-3ABCEC961330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC6EB57C-F41A-4FC7-951A-506308DF437E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="59">
   <si>
     <t>IRMSGCAS</t>
   </si>
@@ -188,6 +188,15 @@
   </si>
   <si>
     <t>FI SWA 18gsm CW176mmRD560mmWH BS RR 1CP(WONDER WOMAN)</t>
+  </si>
+  <si>
+    <t>UWF3-WHITE-214(18)-WW</t>
+  </si>
+  <si>
+    <t>00005187</t>
+  </si>
+  <si>
+    <t>FI SWA 18gsm CW214mmRD450mmWH WF RR 1CP(WONDER WOMAN)</t>
   </si>
 </sst>
 </file>
@@ -334,7 +343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -444,6 +453,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -666,8 +684,8 @@
   </sheetPr>
   <dimension ref="A1:S997"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="F9" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16:S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -677,7 +695,7 @@
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
     <col min="4" max="4" width="30.7109375" customWidth="1"/>
     <col min="5" max="5" width="26.7109375" style="11" customWidth="1"/>
-    <col min="6" max="6" width="65" customWidth="1"/>
+    <col min="6" max="6" width="69.42578125" customWidth="1"/>
     <col min="7" max="7" width="10.85546875" customWidth="1"/>
     <col min="8" max="8" width="14.5703125" customWidth="1"/>
     <col min="9" max="9" width="10.85546875" style="1" customWidth="1"/>
@@ -1576,8 +1594,64 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="12.75">
-      <c r="F16" s="7"/>
+    <row r="16" spans="1:19" ht="15">
+      <c r="A16" s="41">
+        <v>21177900</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="41">
+        <v>214</v>
+      </c>
+      <c r="J16" s="45">
+        <v>19.260000000000002</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S16" s="22">
+        <v>25</v>
+      </c>
     </row>
     <row r="17" spans="6:6" ht="12.75">
       <c r="F17" s="7"/>
